--- a/2_Documentation/4_GANTT/GANTT.xlsx
+++ b/2_Documentation/4_GANTT/GANTT.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EB4EA-A03E-4769-96AC-E1128029F254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936AFEBC-C966-4A5F-BC11-4F54A3B7F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$K$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Legende:</t>
   </si>
@@ -75,22 +75,31 @@
     <t>Expertenbesuch</t>
   </si>
   <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>Mi</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
     <t>IPA Start</t>
   </si>
   <si>
     <t>Layout</t>
   </si>
   <si>
-    <t>Redesign des "Base Sensorhub" Prototyp</t>
+    <t>OMAV-OrinNX-A603-Board</t>
+  </si>
+  <si>
+    <t>Tag 1</t>
+  </si>
+  <si>
+    <t>Tag 2</t>
+  </si>
+  <si>
+    <t>Tag 3</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
+  </si>
+  <si>
+    <t>Morgen</t>
+  </si>
+  <si>
+    <t>Nachmittag</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +201,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -399,17 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -434,17 +425,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -477,34 +457,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -514,7 +466,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,14 +479,11 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,7 +491,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +506,7 @@
     <xf numFmtId="165" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -602,13 +551,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,19 +572,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="16" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,24 +581,18 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,6 +616,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -698,91 +644,7 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -830,13 +692,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -904,13 +766,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -978,13 +840,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1052,13 +914,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1126,13 +988,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1200,13 +1062,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1274,7 +1136,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1343,7 +1205,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1412,7 +1274,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1481,7 +1343,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1550,7 +1412,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1619,7 +1481,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1688,7 +1550,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1757,7 +1619,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1826,7 +1688,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1895,7 +1757,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1964,7 +1826,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2033,7 +1895,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2102,7 +1964,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2171,7 +2033,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2240,7 +2102,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2309,7 +2171,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2378,7 +2240,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2447,7 +2309,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2516,7 +2378,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2585,7 +2447,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2654,7 +2516,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2723,7 +2585,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2792,7 +2654,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2861,7 +2723,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2930,7 +2792,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -2999,7 +2861,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3068,7 +2930,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3137,7 +2999,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3206,7 +3068,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3275,7 +3137,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3344,7 +3206,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3413,7 +3275,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -3771,827 +3633,600 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="19" customWidth="1"/>
-    <col min="4" max="17" width="9.42578125" style="22" customWidth="1"/>
-    <col min="18" max="24" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="18" customWidth="1"/>
+    <col min="4" max="11" width="10.7109375" style="21" customWidth="1"/>
+    <col min="12" max="18" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48"/>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="31">
+      <c r="C4" s="52">
         <v>45715</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="53"/>
+      <c r="E4" s="52">
         <v>45719</v>
       </c>
-      <c r="E4" s="38">
+      <c r="F4" s="53"/>
+      <c r="G4" s="52">
         <v>45721</v>
       </c>
-      <c r="F4" s="40">
+      <c r="H4" s="53"/>
+      <c r="I4" s="52">
         <v>45722</v>
       </c>
-      <c r="G4" s="8">
-        <v>45726</v>
-      </c>
-      <c r="H4" s="8">
-        <v>45728</v>
-      </c>
-      <c r="I4" s="31">
-        <f t="shared" ref="I4:L4" si="0">H4+1</f>
-        <v>45729</v>
-      </c>
-      <c r="J4" s="8">
-        <v>45733</v>
-      </c>
-      <c r="K4" s="8">
-        <v>45735</v>
-      </c>
-      <c r="L4" s="41">
-        <f t="shared" si="0"/>
-        <v>45736</v>
-      </c>
-      <c r="M4" s="8">
-        <v>45740</v>
-      </c>
-      <c r="N4" s="8">
-        <v>45742</v>
-      </c>
-      <c r="O4" s="41">
-        <v>45743</v>
-      </c>
-      <c r="P4" s="8">
-        <v>45747</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="33">
-        <f>SUM(C6:Q6)</f>
+      <c r="C6" s="55"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31">
+        <f>SUM(C7:K7)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="33">
-        <f>SUM(C7:Q7)</f>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="31">
+        <f>SUM(C8:K8)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="33">
-        <f>SUM(C8:Q8)</f>
+      <c r="B9" s="31">
+        <f>SUM(C9:K9)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="33">
-        <f>SUM(C9:Q9)</f>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="31">
+        <f>SUM(C10:K10)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="32">
-        <f t="shared" ref="B11:B12" si="1">SUM(C11:Q11)</f>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="30">
+        <f>SUM(C12:K12)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="32">
-        <f t="shared" si="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="30">
+        <f>SUM(C13:K13)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="6">
-        <f t="shared" ref="B14:B15" si="2">SUM(C14:Q14)</f>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="6">
+        <f>SUM(C15:K15)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="6">
-        <f t="shared" si="2"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="6">
+        <f>SUM(C16:K16)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="7">
-        <f t="shared" ref="B17:B18" si="3">SUM(C17:Q17)</f>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="7">
+        <f>SUM(C18:K18)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="7">
-        <f t="shared" si="3"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="7">
+        <f>SUM(C19:K19)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="43">
-        <f>SUM(C20:Q20)</f>
+      <c r="B21" s="37">
+        <f>SUM(C21:K21)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="43">
-        <f>SUM(C21:Q21)</f>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="37">
+        <f>SUM(C22:K22)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="43">
-        <f>SUM(C22:Q22)</f>
+      <c r="B23" s="37">
+        <f>SUM(C23:K23)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="43">
-        <f>SUM(C23:Q23)</f>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="37">
+        <f>SUM(C24:K24)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-    </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="G26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="20" t="s">
+      <c r="G27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="28" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="29" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" s="22"/>
-    </row>
-    <row r="32" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="C37" s="22"/>
+      <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="C40" s="22"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="C41" s="22"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="C42" s="22"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="C43" s="22"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="22"/>
-    </row>
-    <row r="90" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
+      <c r="A44" s="3"/>
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="21"/>
+    </row>
+    <row r="91" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:Q2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C1:K2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C6:Q6">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="C7:K7 C9:K9 C12:K12 C15:K15 C18:K18 C21:K21 C23:K23">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:Q7">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:Q8">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:Q9">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:Q11">
-    <cfRule type="cellIs" dxfId="9" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:Q12">
-    <cfRule type="cellIs" dxfId="8" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:Q14">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:Q15">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:Q17">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:Q18">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:Q20">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:Q21">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:Q22">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:Q23">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="greaterThan">
+  <conditionalFormatting sqref="C8:K8 C10:K10 C13:K13 C16:K16 C19:K19 C22:K22 C24:K24">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2_Documentation/4_GANTT/GANTT.xlsx
+++ b/2_Documentation/4_GANTT/GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936AFEBC-C966-4A5F-BC11-4F54A3B7F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9026276-CB23-4F6D-AC25-4AC48C3DD868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Legende:</t>
   </si>
@@ -69,15 +69,6 @@
     <t>Projekplanung</t>
   </si>
   <si>
-    <t>Zeitplan erstellen</t>
-  </si>
-  <si>
-    <t>Expertenbesuch</t>
-  </si>
-  <si>
-    <t>IPA Start</t>
-  </si>
-  <si>
     <t>Layout</t>
   </si>
   <si>
@@ -100,6 +91,18 @@
   </si>
   <si>
     <t>Nachmittag</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Arbeitsjournal</t>
+  </si>
+  <si>
+    <t>Zeitplan</t>
+  </si>
+  <si>
+    <t>Blockschaltbild</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,24 +578,30 @@
     <xf numFmtId="165" fontId="4" fillId="16" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,17 +629,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -644,7 +641,56 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3635,8 +3681,8 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3652,7 +3698,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -3679,73 +3725,73 @@
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="52">
+      <c r="C4" s="53">
         <v>45715</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52">
+      <c r="D4" s="54"/>
+      <c r="E4" s="53">
         <v>45719</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52">
+      <c r="F4" s="54"/>
+      <c r="G4" s="53">
         <v>45721</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="52">
+      <c r="H4" s="54"/>
+      <c r="I4" s="53">
         <v>45722</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3754,78 +3800,98 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>13</v>
+      <c r="A7" s="44" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="31">
         <f>SUM(C7:K7)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="56"/>
+      <c r="D7" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="31">
         <f>SUM(C8:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>11</v>
+      <c r="A9" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="31">
         <f>SUM(C9:K9)</f>
-        <v>0</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="31">
         <f>SUM(C10:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -3848,13 +3914,17 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="30">
         <f>SUM(C12:K12)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>6.25E-2</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3864,13 +3934,15 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="30">
         <f>SUM(C13:K13)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3895,23 +3967,31 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="6">
         <f>SUM(C15:K15)</f>
-        <v>0</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="6">
         <f>SUM(C16:K16)</f>
         <v>0</v>
@@ -3928,7 +4008,7 @@
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="13"/>
@@ -3942,23 +4022,29 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="7">
         <f>SUM(C18:K18)</f>
-        <v>0</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="H18" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J18" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="7">
         <f>SUM(C19:K19)</f>
         <v>0</v>
@@ -3989,65 +4075,79 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="37">
         <f>SUM(C21:K21)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="37">
         <f>SUM(C22:K22)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>12</v>
+      <c r="A23" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="37">
         <f>SUM(C23:K23)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="37">
         <f>SUM(C24:K24)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -4060,7 +4160,10 @@
       <c r="A25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="33">
+        <f>SUM(B7,B9,B12,B15,B18,B21,B23)</f>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -4075,7 +4178,10 @@
       <c r="A26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="34">
+        <f>SUM(B8,B10,B13,B16,B19,B22,B24)</f>
+        <v>0.125</v>
+      </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -4196,10 +4302,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C1:K2"/>
     <mergeCell ref="A7:A8"/>
@@ -4212,21 +4314,35 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C7:K7 C9:K9 C12:K12 C15:K15 C18:K18 C21:K21 C23:K23">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="C12:K12 C7:K7 C15:K15 C18:K18 C21:K21 C23:K23">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:K8 C10:K10 C13:K13 C16:K16 C19:K19 C22:K22 C24:K24">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="C13:K13 C16:K16 C19:K19 C22:K22 C10:K10 C24:K24">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:K9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:K8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2_Documentation/4_GANTT/GANTT.xlsx
+++ b/2_Documentation/4_GANTT/GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9026276-CB23-4F6D-AC25-4AC48C3DD868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BCEA7-59A8-4EBA-BCA0-58F726440284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,6 +584,12 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,12 +602,6 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,6 +611,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,9 +631,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -641,7 +641,7 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -653,41 +653,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3682,7 +3647,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:N13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3697,71 +3662,71 @@
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="53" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="54"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>45715</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="53">
+      <c r="D4" s="55"/>
+      <c r="E4" s="54">
         <v>45719</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="53">
+      <c r="F4" s="55"/>
+      <c r="G4" s="54">
         <v>45721</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53">
+      <c r="H4" s="55"/>
+      <c r="I4" s="54">
         <v>45722</v>
       </c>
-      <c r="J4" s="54"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,7 +3776,7 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="31">
@@ -3837,7 +3802,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="31">
         <f>SUM(C8:K8)</f>
         <v>1.0416666666666666E-2</v>
@@ -3855,7 +3820,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="31">
@@ -3881,7 +3846,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="31">
         <f>SUM(C10:K10)</f>
         <v>2.0833333333333332E-2</v>
@@ -3934,7 +3899,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="30">
         <f>SUM(C13:K13)</f>
         <v>8.3333333333333329E-2</v>
@@ -3967,7 +3932,7 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="6">
         <f>SUM(C15:K15)</f>
         <v>0.58333333333333326</v>
@@ -3991,13 +3956,15 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="6">
         <f>SUM(C16:K16)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4022,7 +3989,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="7">
         <f>SUM(C18:K18)</f>
         <v>0.41666666666666663</v>
@@ -4044,7 +4011,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="7">
         <f>SUM(C19:K19)</f>
         <v>0</v>
@@ -4180,7 +4147,7 @@
       </c>
       <c r="B26" s="34">
         <f>SUM(B8,B10,B13,B16,B19,B22,B24)</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -4320,13 +4287,13 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C12:K12 C7:K7 C15:K15 C18:K18 C21:K21 C23:K23">
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="greaterThan">
+  <conditionalFormatting sqref="C7:K7 C12:K12 C15:K15 C18:K18 C21:K21 C23:K23">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:K13 C16:K16 C19:K19 C22:K22 C10:K10 C24:K24">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="C8:K8">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4335,8 +4302,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:K8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C10:K10 C13:K13 C16:K16 C19:K19 C22:K22 C24:K24">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2_Documentation/4_GANTT/GANTT.xlsx
+++ b/2_Documentation/4_GANTT/GANTT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BCEA7-59A8-4EBA-BCA0-58F726440284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFAB82-03EE-4D84-8CBD-14F39A4E973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,6 +630,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3647,7 +3650,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3805,14 +3808,16 @@
       <c r="A8" s="41"/>
       <c r="B8" s="31">
         <f>SUM(C8:K8)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="11">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -3849,13 +3854,15 @@
       <c r="A10" s="41"/>
       <c r="B10" s="31">
         <f>SUM(C10:K10)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -3959,11 +3966,11 @@
       <c r="A16" s="53"/>
       <c r="B16" s="6">
         <f>SUM(C16:K16)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -4073,14 +4080,18 @@
         <f>SUM(C22:K22)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="56">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,7 +4158,7 @@
       </c>
       <c r="B26" s="34">
         <f>SUM(B8,B10,B13,B16,B19,B22,B24)</f>
-        <v>0.16666666666666666</v>
+        <v>0.20486111111111108</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -4302,7 +4313,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:K10 C13:K13 C16:K16 C19:K19 C22:K22 C24:K24">
+  <conditionalFormatting sqref="C10:K10 C13:K13 C16:K16 C19:K19 C24:K24 C22:K22">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/2_Documentation/4_GANTT/GANTT.xlsx
+++ b/2_Documentation/4_GANTT/GANTT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFAB82-03EE-4D84-8CBD-14F39A4E973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD03792-FAE1-4AAB-9342-34A3B5FD4775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -584,6 +584,9 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,9 +633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3649,8 +3649,8 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3665,71 +3665,71 @@
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="54" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="55"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="54">
+      <c r="C4" s="55">
         <v>45715</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="54">
+      <c r="D4" s="56"/>
+      <c r="E4" s="55">
         <v>45719</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="54">
+      <c r="F4" s="56"/>
+      <c r="G4" s="55">
         <v>45721</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="54">
+      <c r="H4" s="56"/>
+      <c r="I4" s="55">
         <v>45722</v>
       </c>
-      <c r="J4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="31">
@@ -3805,10 +3805,10 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="31">
         <f>SUM(C8:K8)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="11">
@@ -3819,13 +3819,17 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="31">
@@ -3851,10 +3855,10 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="31">
         <f>SUM(C10:K10)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="11">
@@ -3864,7 +3868,9 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3886,7 +3892,7 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="30">
@@ -3906,7 +3912,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="30">
         <f>SUM(C13:K13)</f>
         <v>8.3333333333333329E-2</v>
@@ -3939,7 +3945,7 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6">
         <f>SUM(C15:K15)</f>
         <v>0.58333333333333326</v>
@@ -3963,18 +3969,24 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="6">
         <f>SUM(C16:K16)</f>
-        <v>6.25E-2</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
         <v>6.25E-2</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="E16" s="11">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G16" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -3996,7 +4008,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="7">
         <f>SUM(C18:K18)</f>
         <v>0.41666666666666663</v>
@@ -4018,7 +4030,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="7">
         <f>SUM(C19:K19)</f>
         <v>0</v>
@@ -4049,7 +4061,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="37">
@@ -4075,17 +4087,17 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="37">
         <f>SUM(C22:K22)</f>
         <v>0</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="56">
+      <c r="D22" s="40">
         <v>0</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="56">
+      <c r="F22" s="40">
         <v>0</v>
       </c>
       <c r="G22" s="11"/>
@@ -4095,7 +4107,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="37">
@@ -4117,7 +4129,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="37">
         <f>SUM(C24:K24)</f>
         <v>1.0416666666666666E-2</v>
@@ -4158,7 +4170,7 @@
       </c>
       <c r="B26" s="34">
         <f>SUM(B8,B10,B13,B16,B19,B22,B24)</f>
-        <v>0.20486111111111108</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -4313,7 +4325,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:K10 C13:K13 C16:K16 C19:K19 C24:K24 C22:K22">
+  <conditionalFormatting sqref="C13:K13 C16:K16 C19:K19 C22:K22 C24:K24 C10:K10">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
